--- a/txt/basePos.xlsx
+++ b/txt/basePos.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -449,10 +449,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1100</v>
+        <v>730</v>
       </c>
       <c r="B3" s="1">
-        <v>770</v>
+        <v>505</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>-100</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
